--- a/Configuration File.xlsx
+++ b/Configuration File.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Config Details" sheetId="1" r:id="rId1"/>
@@ -485,8 +485,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +632,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
